--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.1 Plantilla_RER_Conectado.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.1 Plantilla_RER_Conectado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743FDCA1-93EE-47FA-BE24-6CEB820230CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7C98E3-7512-4B04-85A5-A36D653F1291}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ACA6606E-36F4-4301-BA22-8262E4A049EE}"/>
   </bookViews>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -239,10 +239,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,7 +248,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -573,7 +569,7 @@
   <dimension ref="A1:B311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,18 +579,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -612,1239 +608,1239 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="10"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="10"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="10"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="10"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="10"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="10"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="10"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="10"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="10"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="10"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="10"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="10"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="10"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="10"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="10"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="10"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="10"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="10"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="10"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="10"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="10"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="10"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="10"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="10"/>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="10"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="10"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="10"/>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="10"/>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-      <c r="B59" s="10"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="10"/>
+      <c r="B60" s="9"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="10"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="10"/>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="10"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="10"/>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="10"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="10"/>
+      <c r="B66" s="9"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="10"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="10"/>
+      <c r="B68" s="9"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="10"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="10"/>
+      <c r="B70" s="9"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="10"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="10"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="10"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="10"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="10"/>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="10"/>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="10"/>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="10"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="10"/>
+      <c r="B79" s="9"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="10"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="10"/>
+      <c r="B81" s="9"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="10"/>
+      <c r="B82" s="9"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="10"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
-      <c r="B84" s="10"/>
+      <c r="B84" s="9"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="B85" s="10"/>
+      <c r="B85" s="9"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
-      <c r="B86" s="10"/>
+      <c r="B86" s="9"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
-      <c r="B87" s="10"/>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="10"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
-      <c r="B89" s="10"/>
+      <c r="B89" s="9"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
-      <c r="B90" s="10"/>
+      <c r="B90" s="9"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
-      <c r="B91" s="10"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
-      <c r="B92" s="10"/>
+      <c r="B92" s="9"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" s="10"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
-      <c r="B94" s="10"/>
+      <c r="B94" s="9"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
-      <c r="B95" s="10"/>
+      <c r="B95" s="9"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
-      <c r="B96" s="10"/>
+      <c r="B96" s="9"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
-      <c r="B97" s="10"/>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
-      <c r="B98" s="10"/>
+      <c r="B98" s="9"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
-      <c r="B99" s="10"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
-      <c r="B100" s="10"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
-      <c r="B101" s="10"/>
+      <c r="B101" s="9"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
-      <c r="B102" s="10"/>
+      <c r="B102" s="9"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
-      <c r="B103" s="10"/>
+      <c r="B103" s="9"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
-      <c r="B104" s="10"/>
+      <c r="B104" s="9"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
-      <c r="B105" s="10"/>
+      <c r="B105" s="9"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
-      <c r="B106" s="10"/>
+      <c r="B106" s="9"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
-      <c r="B107" s="10"/>
+      <c r="B107" s="9"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
-      <c r="B108" s="10"/>
+      <c r="B108" s="9"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
-      <c r="B109" s="10"/>
+      <c r="B109" s="9"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
-      <c r="B110" s="10"/>
+      <c r="B110" s="9"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
-      <c r="B111" s="10"/>
+      <c r="B111" s="9"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
-      <c r="B112" s="10"/>
+      <c r="B112" s="9"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
-      <c r="B113" s="10"/>
+      <c r="B113" s="9"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
-      <c r="B114" s="10"/>
+      <c r="B114" s="9"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
-      <c r="B115" s="10"/>
+      <c r="B115" s="9"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
-      <c r="B116" s="10"/>
+      <c r="B116" s="9"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
-      <c r="B117" s="10"/>
+      <c r="B117" s="9"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
-      <c r="B118" s="10"/>
+      <c r="B118" s="9"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
-      <c r="B119" s="10"/>
+      <c r="B119" s="9"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
-      <c r="B120" s="10"/>
+      <c r="B120" s="9"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
-      <c r="B121" s="10"/>
+      <c r="B121" s="9"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
-      <c r="B122" s="10"/>
+      <c r="B122" s="9"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
-      <c r="B123" s="10"/>
+      <c r="B123" s="9"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
-      <c r="B124" s="10"/>
+      <c r="B124" s="9"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
-      <c r="B125" s="10"/>
+      <c r="B125" s="9"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
-      <c r="B126" s="10"/>
+      <c r="B126" s="9"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
-      <c r="B127" s="10"/>
+      <c r="B127" s="9"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
-      <c r="B128" s="10"/>
+      <c r="B128" s="9"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
-      <c r="B129" s="10"/>
+      <c r="B129" s="9"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
-      <c r="B130" s="10"/>
+      <c r="B130" s="9"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
-      <c r="B131" s="10"/>
+      <c r="B131" s="9"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
-      <c r="B132" s="10"/>
+      <c r="B132" s="9"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
-      <c r="B133" s="10"/>
+      <c r="B133" s="9"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
-      <c r="B134" s="10"/>
+      <c r="B134" s="9"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
-      <c r="B135" s="10"/>
+      <c r="B135" s="9"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
-      <c r="B136" s="10"/>
+      <c r="B136" s="9"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
-      <c r="B137" s="10"/>
+      <c r="B137" s="9"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
-      <c r="B138" s="10"/>
+      <c r="B138" s="9"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
-      <c r="B139" s="10"/>
+      <c r="B139" s="9"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
-      <c r="B140" s="10"/>
+      <c r="B140" s="9"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
-      <c r="B141" s="10"/>
+      <c r="B141" s="9"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
-      <c r="B142" s="10"/>
+      <c r="B142" s="9"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
-      <c r="B143" s="10"/>
+      <c r="B143" s="9"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
-      <c r="B144" s="10"/>
+      <c r="B144" s="9"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
-      <c r="B145" s="10"/>
+      <c r="B145" s="9"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
-      <c r="B146" s="10"/>
+      <c r="B146" s="9"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
-      <c r="B147" s="10"/>
+      <c r="B147" s="9"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
-      <c r="B148" s="10"/>
+      <c r="B148" s="9"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
-      <c r="B149" s="10"/>
+      <c r="B149" s="9"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
-      <c r="B150" s="10"/>
+      <c r="B150" s="9"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
-      <c r="B151" s="10"/>
+      <c r="B151" s="9"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
-      <c r="B152" s="10"/>
+      <c r="B152" s="9"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
-      <c r="B153" s="10"/>
+      <c r="B153" s="9"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
-      <c r="B154" s="10"/>
+      <c r="B154" s="9"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
-      <c r="B155" s="10"/>
+      <c r="B155" s="9"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
-      <c r="B156" s="10"/>
+      <c r="B156" s="9"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
-      <c r="B157" s="10"/>
+      <c r="B157" s="9"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
-      <c r="B158" s="10"/>
+      <c r="B158" s="9"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
-      <c r="B159" s="10"/>
+      <c r="B159" s="9"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
-      <c r="B160" s="10"/>
+      <c r="B160" s="9"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
-      <c r="B161" s="10"/>
+      <c r="B161" s="9"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
-      <c r="B162" s="10"/>
+      <c r="B162" s="9"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
-      <c r="B163" s="10"/>
+      <c r="B163" s="9"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
-      <c r="B164" s="10"/>
+      <c r="B164" s="9"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
-      <c r="B165" s="10"/>
+      <c r="B165" s="9"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
-      <c r="B166" s="10"/>
+      <c r="B166" s="9"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
-      <c r="B167" s="10"/>
+      <c r="B167" s="9"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
-      <c r="B168" s="10"/>
+      <c r="B168" s="9"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
-      <c r="B169" s="10"/>
+      <c r="B169" s="9"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
-      <c r="B170" s="10"/>
+      <c r="B170" s="9"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
-      <c r="B171" s="10"/>
+      <c r="B171" s="9"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
-      <c r="B172" s="10"/>
+      <c r="B172" s="9"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
-      <c r="B173" s="10"/>
+      <c r="B173" s="9"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
-      <c r="B174" s="10"/>
+      <c r="B174" s="9"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
-      <c r="B175" s="10"/>
+      <c r="B175" s="9"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
-      <c r="B176" s="10"/>
+      <c r="B176" s="9"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
-      <c r="B177" s="10"/>
+      <c r="B177" s="9"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
-      <c r="B178" s="10"/>
+      <c r="B178" s="9"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
-      <c r="B179" s="10"/>
+      <c r="B179" s="9"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
-      <c r="B180" s="10"/>
+      <c r="B180" s="9"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
-      <c r="B181" s="10"/>
+      <c r="B181" s="9"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
-      <c r="B182" s="10"/>
+      <c r="B182" s="9"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
-      <c r="B183" s="10"/>
+      <c r="B183" s="9"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
-      <c r="B184" s="10"/>
+      <c r="B184" s="9"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
-      <c r="B185" s="10"/>
+      <c r="B185" s="9"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
-      <c r="B186" s="10"/>
+      <c r="B186" s="9"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
-      <c r="B187" s="10"/>
+      <c r="B187" s="9"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
-      <c r="B188" s="10"/>
+      <c r="B188" s="9"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
-      <c r="B189" s="10"/>
+      <c r="B189" s="9"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
-      <c r="B190" s="10"/>
+      <c r="B190" s="9"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
-      <c r="B191" s="10"/>
+      <c r="B191" s="9"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
-      <c r="B192" s="10"/>
+      <c r="B192" s="9"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
-      <c r="B193" s="10"/>
+      <c r="B193" s="9"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
-      <c r="B194" s="10"/>
+      <c r="B194" s="9"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
-      <c r="B195" s="10"/>
+      <c r="B195" s="9"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
-      <c r="B196" s="10"/>
+      <c r="B196" s="9"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
-      <c r="B197" s="10"/>
+      <c r="B197" s="9"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
-      <c r="B198" s="10"/>
+      <c r="B198" s="9"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
-      <c r="B199" s="10"/>
+      <c r="B199" s="9"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
-      <c r="B200" s="10"/>
+      <c r="B200" s="9"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
-      <c r="B201" s="10"/>
+      <c r="B201" s="9"/>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
-      <c r="B202" s="10"/>
+      <c r="B202" s="9"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
-      <c r="B203" s="10"/>
+      <c r="B203" s="9"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
-      <c r="B204" s="10"/>
+      <c r="B204" s="9"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
-      <c r="B205" s="10"/>
+      <c r="B205" s="9"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
-      <c r="B206" s="10"/>
+      <c r="B206" s="9"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
-      <c r="B207" s="10"/>
+      <c r="B207" s="9"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
-      <c r="B208" s="10"/>
+      <c r="B208" s="9"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
-      <c r="B209" s="10"/>
+      <c r="B209" s="9"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
-      <c r="B210" s="10"/>
+      <c r="B210" s="9"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
-      <c r="B211" s="10"/>
+      <c r="B211" s="9"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
-      <c r="B212" s="10"/>
+      <c r="B212" s="9"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
-      <c r="B213" s="10"/>
+      <c r="B213" s="9"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
-      <c r="B214" s="10"/>
+      <c r="B214" s="9"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
-      <c r="B215" s="10"/>
+      <c r="B215" s="9"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
-      <c r="B216" s="10"/>
+      <c r="B216" s="9"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
-      <c r="B217" s="10"/>
+      <c r="B217" s="9"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
-      <c r="B218" s="10"/>
+      <c r="B218" s="9"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
-      <c r="B219" s="10"/>
+      <c r="B219" s="9"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
-      <c r="B220" s="10"/>
+      <c r="B220" s="9"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
-      <c r="B221" s="10"/>
+      <c r="B221" s="9"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
-      <c r="B222" s="10"/>
+      <c r="B222" s="9"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
-      <c r="B223" s="10"/>
+      <c r="B223" s="9"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
-      <c r="B224" s="10"/>
+      <c r="B224" s="9"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
-      <c r="B225" s="10"/>
+      <c r="B225" s="9"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
-      <c r="B226" s="10"/>
+      <c r="B226" s="9"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
-      <c r="B227" s="10"/>
+      <c r="B227" s="9"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
-      <c r="B228" s="10"/>
+      <c r="B228" s="9"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
-      <c r="B229" s="10"/>
+      <c r="B229" s="9"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
-      <c r="B230" s="10"/>
+      <c r="B230" s="9"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
-      <c r="B231" s="10"/>
+      <c r="B231" s="9"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
-      <c r="B232" s="10"/>
+      <c r="B232" s="9"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
-      <c r="B233" s="10"/>
+      <c r="B233" s="9"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
-      <c r="B234" s="10"/>
+      <c r="B234" s="9"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
-      <c r="B235" s="10"/>
+      <c r="B235" s="9"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="5"/>
-      <c r="B236" s="10"/>
+      <c r="B236" s="9"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
-      <c r="B237" s="10"/>
+      <c r="B237" s="9"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="5"/>
-      <c r="B238" s="10"/>
+      <c r="B238" s="9"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
-      <c r="B239" s="10"/>
+      <c r="B239" s="9"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="5"/>
-      <c r="B240" s="10"/>
+      <c r="B240" s="9"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
-      <c r="B241" s="10"/>
+      <c r="B241" s="9"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="5"/>
-      <c r="B242" s="10"/>
+      <c r="B242" s="9"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="5"/>
-      <c r="B243" s="10"/>
+      <c r="B243" s="9"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="5"/>
-      <c r="B244" s="10"/>
+      <c r="B244" s="9"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="5"/>
-      <c r="B245" s="10"/>
+      <c r="B245" s="9"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="5"/>
-      <c r="B246" s="10"/>
+      <c r="B246" s="9"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="5"/>
-      <c r="B247" s="10"/>
+      <c r="B247" s="9"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="5"/>
-      <c r="B248" s="10"/>
+      <c r="B248" s="9"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="5"/>
-      <c r="B249" s="10"/>
+      <c r="B249" s="9"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="5"/>
-      <c r="B250" s="10"/>
+      <c r="B250" s="9"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="5"/>
-      <c r="B251" s="10"/>
+      <c r="B251" s="9"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="5"/>
-      <c r="B252" s="10"/>
+      <c r="B252" s="9"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="5"/>
-      <c r="B253" s="10"/>
+      <c r="B253" s="9"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
-      <c r="B254" s="10"/>
+      <c r="B254" s="9"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
-      <c r="B255" s="10"/>
+      <c r="B255" s="9"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="5"/>
-      <c r="B256" s="10"/>
+      <c r="B256" s="9"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="5"/>
-      <c r="B257" s="10"/>
+      <c r="B257" s="9"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="5"/>
-      <c r="B258" s="10"/>
+      <c r="B258" s="9"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="5"/>
-      <c r="B259" s="10"/>
+      <c r="B259" s="9"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="5"/>
-      <c r="B260" s="10"/>
+      <c r="B260" s="9"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="5"/>
-      <c r="B261" s="10"/>
+      <c r="B261" s="9"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="5"/>
-      <c r="B262" s="10"/>
+      <c r="B262" s="9"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="5"/>
-      <c r="B263" s="10"/>
+      <c r="B263" s="9"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
-      <c r="B264" s="10"/>
+      <c r="B264" s="9"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
-      <c r="B265" s="10"/>
+      <c r="B265" s="9"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="5"/>
-      <c r="B266" s="10"/>
+      <c r="B266" s="9"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="5"/>
-      <c r="B267" s="10"/>
+      <c r="B267" s="9"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="5"/>
-      <c r="B268" s="10"/>
+      <c r="B268" s="9"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="5"/>
-      <c r="B269" s="10"/>
+      <c r="B269" s="9"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="5"/>
-      <c r="B270" s="10"/>
+      <c r="B270" s="9"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="5"/>
-      <c r="B271" s="10"/>
+      <c r="B271" s="9"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="5"/>
-      <c r="B272" s="10"/>
+      <c r="B272" s="9"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="5"/>
-      <c r="B273" s="10"/>
+      <c r="B273" s="9"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
-      <c r="B274" s="10"/>
+      <c r="B274" s="9"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="5"/>
-      <c r="B275" s="10"/>
+      <c r="B275" s="9"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="5"/>
-      <c r="B276" s="10"/>
+      <c r="B276" s="9"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
-      <c r="B277" s="10"/>
+      <c r="B277" s="9"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="5"/>
-      <c r="B278" s="10"/>
+      <c r="B278" s="9"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
-      <c r="B279" s="10"/>
+      <c r="B279" s="9"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="5"/>
-      <c r="B280" s="10"/>
+      <c r="B280" s="9"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="5"/>
-      <c r="B281" s="10"/>
+      <c r="B281" s="9"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="5"/>
-      <c r="B282" s="10"/>
+      <c r="B282" s="9"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="5"/>
-      <c r="B283" s="10"/>
+      <c r="B283" s="9"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
-      <c r="B284" s="10"/>
+      <c r="B284" s="9"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
-      <c r="B285" s="10"/>
+      <c r="B285" s="9"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
-      <c r="B286" s="10"/>
+      <c r="B286" s="9"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
-      <c r="B287" s="10"/>
+      <c r="B287" s="9"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
-      <c r="B288" s="10"/>
+      <c r="B288" s="9"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
-      <c r="B289" s="10"/>
+      <c r="B289" s="9"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
-      <c r="B290" s="10"/>
+      <c r="B290" s="9"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="5"/>
-      <c r="B291" s="10"/>
+      <c r="B291" s="9"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
-      <c r="B292" s="10"/>
+      <c r="B292" s="9"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="5"/>
-      <c r="B293" s="10"/>
+      <c r="B293" s="9"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
-      <c r="B294" s="10"/>
+      <c r="B294" s="9"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="5"/>
-      <c r="B295" s="10"/>
+      <c r="B295" s="9"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
-      <c r="B296" s="10"/>
+      <c r="B296" s="9"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="5"/>
-      <c r="B297" s="10"/>
+      <c r="B297" s="9"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="5"/>
-      <c r="B298" s="10"/>
+      <c r="B298" s="9"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
-      <c r="B299" s="10"/>
+      <c r="B299" s="9"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="5"/>
-      <c r="B300" s="10"/>
+      <c r="B300" s="9"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="5"/>
-      <c r="B301" s="10"/>
+      <c r="B301" s="9"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="5"/>
-      <c r="B302" s="10"/>
+      <c r="B302" s="9"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="5"/>
-      <c r="B303" s="10"/>
+      <c r="B303" s="9"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
-      <c r="B304" s="10"/>
+      <c r="B304" s="9"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="5"/>
-      <c r="B305" s="10"/>
+      <c r="B305" s="9"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="5"/>
-      <c r="B306" s="10"/>
+      <c r="B306" s="9"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="5"/>
-      <c r="B307" s="10"/>
+      <c r="B307" s="9"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="5"/>
-      <c r="B308" s="10"/>
+      <c r="B308" s="9"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
-      <c r="B309" s="10"/>
+      <c r="B309" s="9"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="5"/>
-      <c r="B310" s="10"/>
+      <c r="B310" s="9"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
-      <c r="B311" s="6"/>
+      <c r="B311" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IpGjJPu7W8UXjoDtauOlpqUz1HZk15CVbLao6nfalxTjRR5DxxdCDLy0QDIfXyPGyW0pYCuSkAcxbKDJIBuVZQ==" saltValue="Uwf6WtCZPiNmdu/x7uxoEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LA6Kha/Ri2MBJvy9U1rjGRf16cld5XJoW25vtj8aegA7jnPRjMkWUjhcUCniZ9NWet0VS3saD0lFVRA2nLK+1A==" saltValue="zghWdlXMULAmPJDhx3tLJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{87FBCF53-5B13-4E49-9BFD-B0F55ECF2EA3}">
       <formula1>Lista_Anno</formula1>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B3:B310" xr:uid="{D220E662-F40A-4668-A4DC-CEE4EA72DBC6}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B3:B311" xr:uid="{D220E662-F40A-4668-A4DC-CEE4EA72DBC6}">
       <formula1>0</formula1>
       <formula2>999999999999</formula2>
     </dataValidation>

--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.1 Plantilla_RER_Conectado.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.1 Plantilla_RER_Conectado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Web Dinamico 2\MRVMinem\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9680B247-5272-494D-B121-BD8C9C7AFE19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4FC6C0-C942-4840-A58F-90F9872DBE9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ACA6606E-36F4-4301-BA22-8262E4A049EE}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{ACA6606E-36F4-4301-BA22-8262E4A049EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Rer Conectado" sheetId="1" r:id="rId1"/>
@@ -78,10 +78,10 @@
     <t xml:space="preserve">Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos. </t>
   </si>
   <si>
-    <t>Valor de la electricidad generada por centrales de recursos energéticos renovables. Insertar su dato.</t>
+    <t>Electricidad Generada - SEIN (GWh)</t>
   </si>
   <si>
-    <t>Electricidad Generada (GWh)</t>
+    <t>Electricidad generada del equipo en el año. Inserte su dato.</t>
   </si>
 </sst>
 </file>
@@ -243,17 +243,17 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,7 +572,7 @@
   <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,21 +585,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="13"/>
-    </row>
-    <row r="3" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
       <c r="B312" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kH8+PRyV/72XNjcBubJ5obMYV8e4DDp+zVj98x2ZEJROhkvtURt753pwRVIJ0FTiCrqqDnko7GWTBoaB7ivtqQ==" saltValue="2TgeTKGzBF5KL5pCoRiKog==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Q/lGuRck+sg68YuQPfbZ1W/thu0wmgOZJpGbCBOHIy015sRKFlanV0qT4glhC+0V8jdf2BTAR2hfymNmkbDIGw==" saltValue="LOCZjcMIHQ2BbRi4Nh/LKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>

--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.1 Plantilla_RER_Conectado.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/3.1 Plantilla_RER_Conectado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4FC6C0-C942-4840-A58F-90F9872DBE9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45141B9-743F-4DA8-83E0-564AE1EEDA9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{ACA6606E-36F4-4301-BA22-8262E4A049EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{ACA6606E-36F4-4301-BA22-8262E4A049EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Rer Conectado" sheetId="1" r:id="rId1"/>
@@ -572,7 +572,7 @@
   <dimension ref="A1:B312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,7 +1843,7 @@
       <c r="B312" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Q/lGuRck+sg68YuQPfbZ1W/thu0wmgOZJpGbCBOHIy015sRKFlanV0qT4glhC+0V8jdf2BTAR2hfymNmkbDIGw==" saltValue="LOCZjcMIHQ2BbRi4Nh/LKA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="GiLnKr94S7ppFB8s+kxVFQkqQP8GihVN4cpxdrDwMlfoDE5j3Y+fYDK9x+OGqZCeLiS5V1Ry8LDJ2OG0ocsPGA==" saltValue="VlaL0FRKGrbJ9lfnSyok/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
